--- a/data/pca/factorExposure/factorExposure_2010-02-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01672464478981525</v>
+        <v>0.01704697361385175</v>
       </c>
       <c r="C2">
-        <v>0.0006456937156985518</v>
+        <v>0.0009427756530380102</v>
       </c>
       <c r="D2">
-        <v>-0.006082448333725564</v>
+        <v>0.007201308858750512</v>
       </c>
       <c r="E2">
-        <v>-0.02056963582224828</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>3.89706325911227e-05</v>
+      </c>
+      <c r="F2">
+        <v>-0.009396075695843812</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1278358992849232</v>
+        <v>0.09357340479497553</v>
       </c>
       <c r="C4">
-        <v>0.04820841984317247</v>
+        <v>0.01564221491010552</v>
       </c>
       <c r="D4">
-        <v>-0.03822589960014219</v>
+        <v>0.08400728103970952</v>
       </c>
       <c r="E4">
-        <v>0.006389453028607346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02972232119663774</v>
+      </c>
+      <c r="F4">
+        <v>0.02845310440175008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1196334363279615</v>
+        <v>0.1564394644956931</v>
       </c>
       <c r="C6">
-        <v>-0.03029003177425709</v>
+        <v>0.02469394817786973</v>
       </c>
       <c r="D6">
-        <v>-0.006471951482869645</v>
+        <v>-0.02255305910045382</v>
       </c>
       <c r="E6">
-        <v>-0.02327930708814665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01100596831230762</v>
+      </c>
+      <c r="F6">
+        <v>0.051499190685198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07189240297424813</v>
+        <v>0.05948025112586714</v>
       </c>
       <c r="C7">
-        <v>0.02713456153169252</v>
+        <v>-0.0009393438262485656</v>
       </c>
       <c r="D7">
-        <v>-0.05115451675247073</v>
+        <v>0.05214702979893655</v>
       </c>
       <c r="E7">
-        <v>-0.03332455739503885</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01354505476064593</v>
+      </c>
+      <c r="F7">
+        <v>0.04361159193017231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05587108692833125</v>
+        <v>0.05847874058752405</v>
       </c>
       <c r="C8">
-        <v>0.01109733106721905</v>
+        <v>-0.0135957152010593</v>
       </c>
       <c r="D8">
-        <v>-0.02329303736505835</v>
+        <v>0.03189314136755594</v>
       </c>
       <c r="E8">
-        <v>-0.02367968694085591</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01589472851677283</v>
+      </c>
+      <c r="F8">
+        <v>-0.03180214372006733</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.09830885706940624</v>
+        <v>0.07169657199775294</v>
       </c>
       <c r="C9">
-        <v>0.04972984084140063</v>
+        <v>0.01147669123304476</v>
       </c>
       <c r="D9">
-        <v>-0.01576391199091051</v>
+        <v>0.08494549967114436</v>
       </c>
       <c r="E9">
-        <v>-0.008286903918933611</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.02419021973022007</v>
+      </c>
+      <c r="F9">
+        <v>0.04811471774079196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.06273931354557374</v>
+        <v>0.09527094842648288</v>
       </c>
       <c r="C10">
-        <v>-0.1765513538661201</v>
+        <v>0.01845306162756924</v>
       </c>
       <c r="D10">
-        <v>0.06945167840784794</v>
+        <v>-0.1701252400029601</v>
       </c>
       <c r="E10">
-        <v>-0.0192019415798824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.03834169874149393</v>
+      </c>
+      <c r="F10">
+        <v>-0.05767473767523078</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09686375138627083</v>
+        <v>0.08789267854136552</v>
       </c>
       <c r="C11">
-        <v>0.04999968272336035</v>
+        <v>0.01128485564485313</v>
       </c>
       <c r="D11">
-        <v>-0.05784400744554778</v>
+        <v>0.1172587940826656</v>
       </c>
       <c r="E11">
-        <v>-0.03967670759437922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.04784989743754807</v>
+      </c>
+      <c r="F11">
+        <v>0.01922230126645857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1051225251227087</v>
+        <v>0.09259282265172811</v>
       </c>
       <c r="C12">
-        <v>0.0586208140559723</v>
+        <v>0.008713823185613671</v>
       </c>
       <c r="D12">
-        <v>-0.06697295645976636</v>
+        <v>0.1284898923176022</v>
       </c>
       <c r="E12">
-        <v>-0.03834759362602083</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.04861607599063222</v>
+      </c>
+      <c r="F12">
+        <v>0.01751580898792557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04093819990399734</v>
+        <v>0.04353417348812619</v>
       </c>
       <c r="C13">
-        <v>0.02581811345670769</v>
+        <v>0.003962939514401704</v>
       </c>
       <c r="D13">
-        <v>0.01798536089056091</v>
+        <v>0.04839723466886616</v>
       </c>
       <c r="E13">
-        <v>0.005102185346145187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01293030607083213</v>
+      </c>
+      <c r="F13">
+        <v>0.007393582851213746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02562390478682181</v>
+        <v>0.02283401690046586</v>
       </c>
       <c r="C14">
-        <v>0.004989117581373681</v>
+        <v>0.01412988373583561</v>
       </c>
       <c r="D14">
-        <v>-0.005258344939862441</v>
+        <v>0.03201969087859407</v>
       </c>
       <c r="E14">
-        <v>-0.003083342325067872</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.01733213495073134</v>
+      </c>
+      <c r="F14">
+        <v>0.01775618961012254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03064000239209936</v>
+        <v>0.03115845417351621</v>
       </c>
       <c r="C15">
-        <v>0.02749526029513691</v>
+        <v>0.005144158288112836</v>
       </c>
       <c r="D15">
-        <v>-0.002511705640429338</v>
+        <v>0.0449995952843751</v>
       </c>
       <c r="E15">
-        <v>-0.01692383622000715</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.007257803067954065</v>
+      </c>
+      <c r="F15">
+        <v>0.02753625082651195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.1008656422075479</v>
+        <v>0.07323793800332556</v>
       </c>
       <c r="C16">
-        <v>0.03981035201231114</v>
+        <v>0.002594390387607732</v>
       </c>
       <c r="D16">
-        <v>-0.06584712366042239</v>
+        <v>0.125031836090139</v>
       </c>
       <c r="E16">
-        <v>-0.04287175092895033</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.06406943975753537</v>
+      </c>
+      <c r="F16">
+        <v>0.02250763722821711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02617468667993818</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003835518475413371</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02085863662892124</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>-0.005025569510584561</v>
+      </c>
+      <c r="F18">
+        <v>-0.01528585640575176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.05678763668996933</v>
+        <v>0.05989486871651942</v>
       </c>
       <c r="C20">
-        <v>0.0175673754044207</v>
+        <v>0.0005458139005069758</v>
       </c>
       <c r="D20">
-        <v>-0.0450073162129086</v>
+        <v>0.07689782618056602</v>
       </c>
       <c r="E20">
-        <v>0.004393041178367799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.0561822968404218</v>
+      </c>
+      <c r="F20">
+        <v>0.0238141234972776</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02000151185156672</v>
+        <v>0.03907955338475805</v>
       </c>
       <c r="C21">
-        <v>-0.004645897264303294</v>
+        <v>0.0065371051311664</v>
       </c>
       <c r="D21">
-        <v>-0.001427850552310067</v>
+        <v>0.03539893633510126</v>
       </c>
       <c r="E21">
-        <v>0.03399648484449445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.008096438335897507</v>
+      </c>
+      <c r="F21">
+        <v>-0.0224095547707309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03699824410214742</v>
+        <v>0.0448977699657177</v>
       </c>
       <c r="C22">
-        <v>-0.03752560653378736</v>
+        <v>0.0006433028050183186</v>
       </c>
       <c r="D22">
-        <v>0.03653559802179886</v>
+        <v>0.002572098006556477</v>
       </c>
       <c r="E22">
-        <v>-0.05755128689908342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.02685020519532226</v>
+      </c>
+      <c r="F22">
+        <v>-0.01415156057530654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03710838639479375</v>
+        <v>0.04493157201510946</v>
       </c>
       <c r="C23">
-        <v>-0.03745014545766015</v>
+        <v>0.0006639304528498267</v>
       </c>
       <c r="D23">
-        <v>0.03604545536162394</v>
+        <v>0.002664465639799186</v>
       </c>
       <c r="E23">
-        <v>-0.05944928451017197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.02716034891389104</v>
+      </c>
+      <c r="F23">
+        <v>-0.01361943085086188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.1028612833902108</v>
+        <v>0.07968092352655554</v>
       </c>
       <c r="C24">
-        <v>0.04253273641349902</v>
+        <v>0.002894026586650464</v>
       </c>
       <c r="D24">
-        <v>-0.06272547978144226</v>
+        <v>0.1203770094366882</v>
       </c>
       <c r="E24">
-        <v>-0.03356809124609133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.05104428261345641</v>
+      </c>
+      <c r="F24">
+        <v>0.02204382858315143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.1075709569913442</v>
+        <v>0.08506699019819994</v>
       </c>
       <c r="C25">
-        <v>0.0372002893797285</v>
+        <v>0.005130895645645193</v>
       </c>
       <c r="D25">
-        <v>-0.05888029930817857</v>
+        <v>0.1093507652754206</v>
       </c>
       <c r="E25">
-        <v>-0.04312594448523409</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03388709437451576</v>
+      </c>
+      <c r="F25">
+        <v>0.02530735066991264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.0464244622162425</v>
+        <v>0.05570965104070692</v>
       </c>
       <c r="C26">
-        <v>-0.01410154126878721</v>
+        <v>0.01437741827152209</v>
       </c>
       <c r="D26">
-        <v>-0.0222454271455328</v>
+        <v>0.04229772847657694</v>
       </c>
       <c r="E26">
-        <v>-0.0108571790840534</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02602984701383435</v>
+      </c>
+      <c r="F26">
+        <v>-0.01128796273005592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.05961906188033767</v>
+        <v>0.142611101383765</v>
       </c>
       <c r="C28">
-        <v>-0.2591669914212793</v>
+        <v>0.01764298318701463</v>
       </c>
       <c r="D28">
-        <v>0.1728974357635461</v>
+        <v>-0.2654472206977482</v>
       </c>
       <c r="E28">
-        <v>-0.05291261396906046</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.06827787169929439</v>
+      </c>
+      <c r="F28">
+        <v>0.01905251195018986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03146919676354099</v>
+        <v>0.02696721603686543</v>
       </c>
       <c r="C29">
-        <v>0.008917085158619713</v>
+        <v>0.008335620874877764</v>
       </c>
       <c r="D29">
-        <v>0.003029173865850138</v>
+        <v>0.03149948547897304</v>
       </c>
       <c r="E29">
-        <v>-0.007762522630377949</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01131739216395733</v>
+      </c>
+      <c r="F29">
+        <v>-0.01211443188921094</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.1229533683091354</v>
+        <v>0.06135853410426989</v>
       </c>
       <c r="C30">
-        <v>0.06677677713681592</v>
+        <v>0.00457107280066009</v>
       </c>
       <c r="D30">
-        <v>-0.03355287093544542</v>
+        <v>0.08566678021446554</v>
       </c>
       <c r="E30">
-        <v>-0.0122795308415678</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02364054865539436</v>
+      </c>
+      <c r="F30">
+        <v>0.09219834397656868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03464930333741566</v>
+        <v>0.04902649909786202</v>
       </c>
       <c r="C31">
-        <v>0.01369568539877519</v>
+        <v>0.01504141171071361</v>
       </c>
       <c r="D31">
-        <v>-0.02684543548174739</v>
+        <v>0.02614815568830513</v>
       </c>
       <c r="E31">
-        <v>-0.01810592741004882</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02704533382461551</v>
+      </c>
+      <c r="F31">
+        <v>-0.00594726501803594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.06203917752967587</v>
+        <v>0.04837737459760408</v>
       </c>
       <c r="C32">
-        <v>-0.00292217560943093</v>
+        <v>-0.000722580356347528</v>
       </c>
       <c r="D32">
-        <v>-0.02938745771896727</v>
+        <v>0.03375927382799248</v>
       </c>
       <c r="E32">
-        <v>0.004748938745411569</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.03038199391326447</v>
+      </c>
+      <c r="F32">
+        <v>0.006064026103242971</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.1102245595254475</v>
+        <v>0.08956344713742981</v>
       </c>
       <c r="C33">
-        <v>0.04809274700446493</v>
+        <v>0.008466591664530024</v>
       </c>
       <c r="D33">
-        <v>-0.03148752604910311</v>
+        <v>0.09789509305718953</v>
       </c>
       <c r="E33">
-        <v>-0.07165771864392292</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.04617896105689741</v>
+      </c>
+      <c r="F33">
+        <v>0.03778631471917766</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.08817197683241523</v>
+        <v>0.06770309004316634</v>
       </c>
       <c r="C34">
-        <v>0.02802303102500756</v>
+        <v>0.0116192256799295</v>
       </c>
       <c r="D34">
-        <v>-0.05214487366934439</v>
+        <v>0.1052338568169858</v>
       </c>
       <c r="E34">
-        <v>-0.03212775572064855</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03626909177451772</v>
+      </c>
+      <c r="F34">
+        <v>0.03482564948277628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01445120676487606</v>
+        <v>0.02447889443805207</v>
       </c>
       <c r="C35">
-        <v>0.01263869174497742</v>
+        <v>0.002389188361103045</v>
       </c>
       <c r="D35">
-        <v>0.004638267517816112</v>
+        <v>0.01252475128878222</v>
       </c>
       <c r="E35">
-        <v>-0.004045943088989546</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01104462915941743</v>
+      </c>
+      <c r="F35">
+        <v>0.006346362982554053</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02798804863002066</v>
+        <v>0.02481159539670134</v>
       </c>
       <c r="C36">
-        <v>0.0170363899176862</v>
+        <v>0.007290777978966184</v>
       </c>
       <c r="D36">
-        <v>-0.0007722962648655655</v>
+        <v>0.03944780358410861</v>
       </c>
       <c r="E36">
-        <v>-0.002256418374370727</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.01671257042674523</v>
+      </c>
+      <c r="F36">
+        <v>0.01353555312656752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.005623909825271796</v>
+        <v>0.001463939797754179</v>
       </c>
       <c r="C38">
-        <v>0.0003669298711296031</v>
+        <v>0.0002158174356728766</v>
       </c>
       <c r="D38">
-        <v>0.0001787483204729433</v>
+        <v>0.0007804463775421828</v>
       </c>
       <c r="E38">
-        <v>-0.0005068159246834009</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001122441618345418</v>
+      </c>
+      <c r="F38">
+        <v>-0.001150005671341056</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1663939671575316</v>
+        <v>0.1072486482822385</v>
       </c>
       <c r="C39">
-        <v>0.09434469790674888</v>
+        <v>0.01665332391979944</v>
       </c>
       <c r="D39">
-        <v>-0.09488972391572416</v>
+        <v>0.1533244138530475</v>
       </c>
       <c r="E39">
-        <v>-0.06212294901049683</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.06060025922062217</v>
+      </c>
+      <c r="F39">
+        <v>0.02289577392684123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.009827315509319147</v>
+        <v>0.03768145090607199</v>
       </c>
       <c r="C40">
-        <v>-0.0008637300707115208</v>
+        <v>0.007121369870155411</v>
       </c>
       <c r="D40">
-        <v>-0.009593391780706629</v>
+        <v>0.03318636643293839</v>
       </c>
       <c r="E40">
-        <v>0.01558076799204309</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.001840816679061418</v>
+      </c>
+      <c r="F40">
+        <v>-0.01467958721150118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01957927342846137</v>
+        <v>0.02658873721746822</v>
       </c>
       <c r="C41">
-        <v>-0.02333201175803392</v>
+        <v>0.00655473060539006</v>
       </c>
       <c r="D41">
-        <v>-0.01653687509515185</v>
+        <v>0.01113962705923195</v>
       </c>
       <c r="E41">
-        <v>-0.008364733522260475</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01253388067344044</v>
+      </c>
+      <c r="F41">
+        <v>-0.009105315040817019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.02802165674774363</v>
+        <v>0.04017405457773324</v>
       </c>
       <c r="C43">
-        <v>-0.01734264120128936</v>
+        <v>0.006648567624071163</v>
       </c>
       <c r="D43">
-        <v>-0.02965360582098151</v>
+        <v>0.02045009885907346</v>
       </c>
       <c r="E43">
-        <v>-0.02812085823659229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02387921364199466</v>
+      </c>
+      <c r="F43">
+        <v>-0.01408599512838146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1357537902398688</v>
+        <v>0.07682905876084142</v>
       </c>
       <c r="C44">
-        <v>0.06734843314035745</v>
+        <v>0.02090994638309417</v>
       </c>
       <c r="D44">
-        <v>-0.03992131778930794</v>
+        <v>0.09846753796595951</v>
       </c>
       <c r="E44">
-        <v>-0.02848848652709066</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.0740750534825521</v>
+      </c>
+      <c r="F44">
+        <v>0.1699158545858074</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01447533013155995</v>
+        <v>0.02338934237025407</v>
       </c>
       <c r="C46">
-        <v>-0.01562494275455447</v>
+        <v>0.003723961619792567</v>
       </c>
       <c r="D46">
-        <v>-0.007794276138774592</v>
+        <v>0.01179867564806184</v>
       </c>
       <c r="E46">
-        <v>-0.03130047301595012</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02238340147428826</v>
+      </c>
+      <c r="F46">
+        <v>0.0006851971321695025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.04483378477385078</v>
+        <v>0.05102091555365275</v>
       </c>
       <c r="C47">
-        <v>-0.004468328616831787</v>
+        <v>0.003334343720793627</v>
       </c>
       <c r="D47">
-        <v>-0.01518829151253327</v>
+        <v>0.01306807980163476</v>
       </c>
       <c r="E47">
-        <v>-0.003961019529219103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02236725572260698</v>
+      </c>
+      <c r="F47">
+        <v>-0.03997586107312439</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04474655814095872</v>
+        <v>0.04777800426966694</v>
       </c>
       <c r="C48">
-        <v>0.02040896166758431</v>
+        <v>0.002594479326014696</v>
       </c>
       <c r="D48">
-        <v>-0.0004246940069290276</v>
+        <v>0.05096725531672238</v>
       </c>
       <c r="E48">
-        <v>-0.006067075675754021</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.004931835210044999</v>
+      </c>
+      <c r="F48">
+        <v>0.00466567724066193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2181393184416783</v>
+        <v>0.2025051019314979</v>
       </c>
       <c r="C49">
-        <v>-0.05368700469591715</v>
+        <v>0.01798366489282619</v>
       </c>
       <c r="D49">
-        <v>-0.04094050950929556</v>
+        <v>-0.01167234207244214</v>
       </c>
       <c r="E49">
-        <v>0.01200953861632006</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.0328044051909844</v>
+      </c>
+      <c r="F49">
+        <v>0.02994402368803805</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04243832927393973</v>
+        <v>0.04879616143469789</v>
       </c>
       <c r="C50">
-        <v>0.009990031567502432</v>
+        <v>0.01105886869994387</v>
       </c>
       <c r="D50">
-        <v>-0.03508631335150241</v>
+        <v>0.02580887883799741</v>
       </c>
       <c r="E50">
-        <v>-0.01014252711825184</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02925051620089116</v>
+      </c>
+      <c r="F50">
+        <v>0.0065888272249878</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.007828926268979552</v>
+        <v>0.002151306097100241</v>
       </c>
       <c r="C51">
-        <v>-0.01257652228379639</v>
+        <v>0.0005476337074148456</v>
       </c>
       <c r="D51">
-        <v>0.007941944408089962</v>
+        <v>-0.002289684788041165</v>
       </c>
       <c r="E51">
-        <v>-0.0152757837344347</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-4.823708155572334e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.003863511609234274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1390399094051342</v>
+        <v>0.1448627799182668</v>
       </c>
       <c r="C52">
-        <v>0.06958368182705274</v>
+        <v>0.01422331580182594</v>
       </c>
       <c r="D52">
-        <v>-0.01638546942313749</v>
+        <v>0.04839027327510628</v>
       </c>
       <c r="E52">
-        <v>0.01066806528406039</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.02408122277024008</v>
+      </c>
+      <c r="F52">
+        <v>0.03963806851456866</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1525597955340136</v>
+        <v>0.1735571701085617</v>
       </c>
       <c r="C53">
-        <v>-0.0080592827484346</v>
+        <v>0.01716929438065952</v>
       </c>
       <c r="D53">
-        <v>0.01198811838476474</v>
+        <v>0.007574013456330478</v>
       </c>
       <c r="E53">
-        <v>0.02066587191718791</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03461561482948522</v>
+      </c>
+      <c r="F53">
+        <v>0.07043877912739942</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05166570493292692</v>
+        <v>0.02215429293300429</v>
       </c>
       <c r="C54">
-        <v>0.001561679251888143</v>
+        <v>0.01256831049866035</v>
       </c>
       <c r="D54">
-        <v>-0.01211154268055368</v>
+        <v>0.0323583891590203</v>
       </c>
       <c r="E54">
-        <v>-0.01301942061510801</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01560152236742751</v>
+      </c>
+      <c r="F54">
+        <v>-0.003264436051362452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08778740706917904</v>
+        <v>0.114414693728978</v>
       </c>
       <c r="C55">
-        <v>0.02204489104428953</v>
+        <v>0.01558516072915127</v>
       </c>
       <c r="D55">
-        <v>0.01242632570724037</v>
+        <v>0.0102500339478122</v>
       </c>
       <c r="E55">
-        <v>-0.03028879897218655</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03055004366244494</v>
+      </c>
+      <c r="F55">
+        <v>0.04501264717355833</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1566803873950844</v>
+        <v>0.1774444929992149</v>
       </c>
       <c r="C56">
-        <v>0.001136890649536103</v>
+        <v>0.01449646925571651</v>
       </c>
       <c r="D56">
-        <v>-0.0122768545212049</v>
+        <v>0.005278604501465425</v>
       </c>
       <c r="E56">
-        <v>-0.01152965413755628</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04044524922339243</v>
+      </c>
+      <c r="F56">
+        <v>0.04818712616632693</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04138565764949499</v>
+        <v>0.04624230887163994</v>
       </c>
       <c r="C58">
-        <v>0.005528254414696182</v>
+        <v>0.001131509447842976</v>
       </c>
       <c r="D58">
-        <v>-0.01531520804510488</v>
+        <v>0.06851097495088876</v>
       </c>
       <c r="E58">
-        <v>0.02069977016292641</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02447772945520596</v>
+      </c>
+      <c r="F58">
+        <v>-0.04197149487818231</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1291432959922147</v>
+        <v>0.1716512191273641</v>
       </c>
       <c r="C59">
-        <v>-0.2412701583429686</v>
+        <v>0.01818399391305552</v>
       </c>
       <c r="D59">
-        <v>0.1535514401117607</v>
+        <v>-0.2224071043321812</v>
       </c>
       <c r="E59">
-        <v>-0.06162410508569685</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04688780009757268</v>
+      </c>
+      <c r="F59">
+        <v>-0.03147767781937937</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2755670872951976</v>
+        <v>0.2345999934701682</v>
       </c>
       <c r="C60">
-        <v>0.04104578459014143</v>
+        <v>-0.003821149271649862</v>
       </c>
       <c r="D60">
-        <v>-0.02740908469066078</v>
+        <v>0.04249011679988823</v>
       </c>
       <c r="E60">
-        <v>0.07505403325365693</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01077976722152245</v>
+      </c>
+      <c r="F60">
+        <v>-0.02189552730326378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1230815176408822</v>
+        <v>0.08337798788766509</v>
       </c>
       <c r="C61">
-        <v>0.0636454690491467</v>
+        <v>0.01250505633708579</v>
       </c>
       <c r="D61">
-        <v>-0.04312324510725107</v>
+        <v>0.1161772397125068</v>
       </c>
       <c r="E61">
-        <v>-0.04457575571620899</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03997228696131153</v>
+      </c>
+      <c r="F61">
+        <v>0.00940523252646615</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1649830624894664</v>
+        <v>0.1697577021931271</v>
       </c>
       <c r="C62">
-        <v>0.01112805310747187</v>
+        <v>0.01808811725436804</v>
       </c>
       <c r="D62">
-        <v>-0.01075092420111474</v>
+        <v>0.01021578875832928</v>
       </c>
       <c r="E62">
-        <v>0.003098753957189196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.03703958760328036</v>
+      </c>
+      <c r="F62">
+        <v>0.03022308165050184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.05500875579293146</v>
+        <v>0.04314521863481835</v>
       </c>
       <c r="C63">
-        <v>0.02469031417902057</v>
+        <v>0.002622712063708022</v>
       </c>
       <c r="D63">
-        <v>-0.008579412479700515</v>
+        <v>0.0561876826268141</v>
       </c>
       <c r="E63">
-        <v>-0.0272043036642589</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02118297041364493</v>
+      </c>
+      <c r="F63">
+        <v>0.007091673625825358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09960288117392595</v>
+        <v>0.1105544729343364</v>
       </c>
       <c r="C64">
-        <v>0.0166558269915656</v>
+        <v>0.01130645072993331</v>
       </c>
       <c r="D64">
-        <v>-0.02160788805772423</v>
+        <v>0.04189495995800846</v>
       </c>
       <c r="E64">
-        <v>-0.003900401209068041</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02122894713481129</v>
+      </c>
+      <c r="F64">
+        <v>0.02836135648671672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1164211268335698</v>
+        <v>0.1476128851071953</v>
       </c>
       <c r="C65">
-        <v>-0.003581464728624805</v>
+        <v>0.0314440646642119</v>
       </c>
       <c r="D65">
-        <v>0.01096260730542256</v>
+        <v>-0.04242443714543435</v>
       </c>
       <c r="E65">
-        <v>0.005076692399144983</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.001660325474797091</v>
+      </c>
+      <c r="F65">
+        <v>0.04561285127660038</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1944777926303557</v>
+        <v>0.1277792560989447</v>
       </c>
       <c r="C66">
-        <v>0.0912696232608276</v>
+        <v>0.01448458705601393</v>
       </c>
       <c r="D66">
-        <v>-0.105516696845611</v>
+        <v>0.1429773639849451</v>
       </c>
       <c r="E66">
-        <v>-0.0718783815376071</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.06805204002435988</v>
+      </c>
+      <c r="F66">
+        <v>0.02760631481041461</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.07892908278311547</v>
+        <v>0.06356264612026655</v>
       </c>
       <c r="C67">
-        <v>0.02233162335443505</v>
+        <v>0.002988264342908514</v>
       </c>
       <c r="D67">
-        <v>-0.0001669857457605751</v>
+        <v>0.05547634687918439</v>
       </c>
       <c r="E67">
-        <v>-0.09538344584496847</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01702239870081489</v>
+      </c>
+      <c r="F67">
+        <v>-0.04098711937156178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.05710026077825002</v>
+        <v>0.1171080926168466</v>
       </c>
       <c r="C68">
-        <v>-0.2289598574221976</v>
+        <v>0.02773484416611847</v>
       </c>
       <c r="D68">
-        <v>0.1507112048278735</v>
+        <v>-0.2601185874771468</v>
       </c>
       <c r="E68">
-        <v>-0.0394503173000788</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.08492012351919243</v>
+      </c>
+      <c r="F68">
+        <v>0.01917812444194746</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03379593116408636</v>
+        <v>0.03917622805553556</v>
       </c>
       <c r="C69">
-        <v>0.001561378557759865</v>
+        <v>0.0008628091430139678</v>
       </c>
       <c r="D69">
-        <v>0.01465893902657461</v>
+        <v>0.008385792343227248</v>
       </c>
       <c r="E69">
-        <v>-0.02463566345162426</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02385759445250887</v>
+      </c>
+      <c r="F69">
+        <v>-0.006325411461753797</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03265546568602597</v>
+        <v>0.06265514315272583</v>
       </c>
       <c r="C70">
-        <v>0.002711686481106878</v>
+        <v>-0.02866754973356473</v>
       </c>
       <c r="D70">
-        <v>0.02629676247155464</v>
+        <v>0.02909499030790939</v>
       </c>
       <c r="E70">
-        <v>-0.04331487170647069</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.04888734115153209</v>
+      </c>
+      <c r="F70">
+        <v>-0.2331601374070602</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.06474290711113248</v>
+        <v>0.1364423342565748</v>
       </c>
       <c r="C71">
-        <v>-0.2488649256976413</v>
+        <v>0.03236308115907586</v>
       </c>
       <c r="D71">
-        <v>0.1692990771913786</v>
+        <v>-0.2747797309434926</v>
       </c>
       <c r="E71">
-        <v>-0.04941946952741674</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.09486278057049302</v>
+      </c>
+      <c r="F71">
+        <v>0.02382996084351465</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1317134037037757</v>
+        <v>0.1418082602590846</v>
       </c>
       <c r="C72">
-        <v>-0.03833232508685732</v>
+        <v>0.02507980605629816</v>
       </c>
       <c r="D72">
-        <v>-0.0001299539041383526</v>
+        <v>0.0008956667485961104</v>
       </c>
       <c r="E72">
-        <v>-0.01971379182208413</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.04206132609817989</v>
+      </c>
+      <c r="F72">
+        <v>0.03034569567770614</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2142423987505003</v>
+        <v>0.2014699475556371</v>
       </c>
       <c r="C73">
-        <v>-0.03948983071353468</v>
+        <v>0.01205518239000406</v>
       </c>
       <c r="D73">
-        <v>-4.245154690644192e-05</v>
+        <v>0.01516012967348416</v>
       </c>
       <c r="E73">
-        <v>-0.03416731816380036</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06612131956698063</v>
+      </c>
+      <c r="F73">
+        <v>0.02571588710096873</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1147126121889623</v>
+        <v>0.09433930707126012</v>
       </c>
       <c r="C74">
-        <v>0.005913827846980663</v>
+        <v>0.01238139209186693</v>
       </c>
       <c r="D74">
-        <v>-0.03128515267350892</v>
+        <v>0.01937570817853326</v>
       </c>
       <c r="E74">
-        <v>-0.0121843664756139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.04856243816633198</v>
+      </c>
+      <c r="F74">
+        <v>0.0515128890445114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1362744744176129</v>
+        <v>0.1289003204281302</v>
       </c>
       <c r="C75">
-        <v>0.01449838234273012</v>
+        <v>0.02674910866937458</v>
       </c>
       <c r="D75">
-        <v>-0.03999970297132311</v>
+        <v>0.03274580348824623</v>
       </c>
       <c r="E75">
-        <v>-0.01162046657544379</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.06071580093425914</v>
+      </c>
+      <c r="F75">
+        <v>0.01469085393236354</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.01164447045418312</v>
+        <v>0.002883556033569646</v>
       </c>
       <c r="C76">
-        <v>-0.01214646804058291</v>
+        <v>0.0007284874942059733</v>
       </c>
       <c r="D76">
-        <v>0.007386364831325576</v>
+        <v>-0.002042354633591925</v>
       </c>
       <c r="E76">
-        <v>-0.0105850137843891</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0004816214985309707</v>
+      </c>
+      <c r="F76">
+        <v>0.003748054806819225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.09477362490053705</v>
+        <v>0.08052280110803263</v>
       </c>
       <c r="C77">
-        <v>0.08168199718224521</v>
+        <v>0.008604245184274505</v>
       </c>
       <c r="D77">
-        <v>-0.06678415339972629</v>
+        <v>0.1186984105610748</v>
       </c>
       <c r="E77">
-        <v>0.01923163943251095</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04005252399587703</v>
+      </c>
+      <c r="F77">
+        <v>0.03169413192409983</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1208826221365279</v>
+        <v>0.1033476626217219</v>
       </c>
       <c r="C78">
-        <v>-0.02314656299857363</v>
+        <v>0.03964590530703477</v>
       </c>
       <c r="D78">
-        <v>-0.130622996567909</v>
+        <v>0.1155404154440869</v>
       </c>
       <c r="E78">
-        <v>-0.2131773086744874</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.07855498783360079</v>
+      </c>
+      <c r="F78">
+        <v>0.05567635303029032</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.143059286942201</v>
+        <v>0.1637843365848819</v>
       </c>
       <c r="C79">
-        <v>-0.0002940226935338073</v>
+        <v>0.02078908450855774</v>
       </c>
       <c r="D79">
-        <v>-0.05217822656403473</v>
+        <v>0.01908153530898691</v>
       </c>
       <c r="E79">
-        <v>0.01344738611087797</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.0497654425798264</v>
+      </c>
+      <c r="F79">
+        <v>0.006577865398865411</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.09222974342650206</v>
+        <v>0.08092640734638797</v>
       </c>
       <c r="C80">
-        <v>0.05903999858870891</v>
+        <v>-0.0006437638030155938</v>
       </c>
       <c r="D80">
-        <v>-0.02059659532363525</v>
+        <v>0.05804533393412313</v>
       </c>
       <c r="E80">
-        <v>-0.0608130905415601</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.0364253660450258</v>
+      </c>
+      <c r="F80">
+        <v>-0.02791186905943022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1572151171190825</v>
+        <v>0.12310862572812</v>
       </c>
       <c r="C81">
-        <v>0.02510701095444717</v>
+        <v>0.03074647440613552</v>
       </c>
       <c r="D81">
-        <v>-0.05413045647813418</v>
+        <v>0.01638885897852626</v>
       </c>
       <c r="E81">
-        <v>-0.02654977775922298</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06060489289774685</v>
+      </c>
+      <c r="F81">
+        <v>0.01139191136806809</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1750994091238264</v>
+        <v>0.1642449160689</v>
       </c>
       <c r="C82">
-        <v>0.03912251378902742</v>
+        <v>0.0227680364807157</v>
       </c>
       <c r="D82">
-        <v>-0.01880292602115414</v>
+        <v>0.008676611539501626</v>
       </c>
       <c r="E82">
-        <v>-0.01510653104373278</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.03350438577422808</v>
+      </c>
+      <c r="F82">
+        <v>0.07303418303052349</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08382950316146082</v>
+        <v>0.06187152936015714</v>
       </c>
       <c r="C83">
-        <v>0.02293384971682827</v>
+        <v>0.00324305495380906</v>
       </c>
       <c r="D83">
-        <v>-0.005150433543303673</v>
+        <v>0.04904148513915356</v>
       </c>
       <c r="E83">
-        <v>0.06639245770688523</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.005348868324501231</v>
+      </c>
+      <c r="F83">
+        <v>-0.0398711900740041</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.07131594341998949</v>
+        <v>0.05837359699187596</v>
       </c>
       <c r="C84">
-        <v>0.0154686312961791</v>
+        <v>0.01086300144716157</v>
       </c>
       <c r="D84">
-        <v>-0.00811487074602248</v>
+        <v>0.06664340919966337</v>
       </c>
       <c r="E84">
-        <v>0.003837832330681915</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.00630073993042589</v>
+      </c>
+      <c r="F84">
+        <v>0.007402284164017207</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1252279351752623</v>
+        <v>0.1382074527988491</v>
       </c>
       <c r="C85">
-        <v>-0.002981164308174926</v>
+        <v>0.02657296736221743</v>
       </c>
       <c r="D85">
-        <v>-0.01532294077684816</v>
+        <v>0.01240186191929282</v>
       </c>
       <c r="E85">
-        <v>0.002485026024873298</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.04105859983961888</v>
+      </c>
+      <c r="F85">
+        <v>0.04544634453552348</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1158394478217427</v>
+        <v>0.09588460753844204</v>
       </c>
       <c r="C86">
-        <v>-0.2061851523857194</v>
+        <v>-0.005593649854282554</v>
       </c>
       <c r="D86">
-        <v>-0.2300370780969532</v>
+        <v>0.03492254544002907</v>
       </c>
       <c r="E86">
-        <v>0.887076576336672</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.16152510413149</v>
+      </c>
+      <c r="F86">
+        <v>-0.899865077136309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1143415265902478</v>
+        <v>0.09546577962923622</v>
       </c>
       <c r="C87">
-        <v>0.1029783871157737</v>
+        <v>0.02185758314215241</v>
       </c>
       <c r="D87">
-        <v>0.01685840002228442</v>
+        <v>0.09352291836120021</v>
       </c>
       <c r="E87">
-        <v>0.01515808279991708</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.05302783743792939</v>
+      </c>
+      <c r="F87">
+        <v>0.06732660329722721</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05057400283825093</v>
+        <v>0.06115529172097358</v>
       </c>
       <c r="C88">
-        <v>0.01172170441907734</v>
+        <v>0.002430767494280322</v>
       </c>
       <c r="D88">
-        <v>-0.03180334038680482</v>
+        <v>0.05046750279323312</v>
       </c>
       <c r="E88">
-        <v>-0.04259253962762314</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02576167745433893</v>
+      </c>
+      <c r="F88">
+        <v>0.009581389133124219</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.101434986926084</v>
+        <v>0.134955396960144</v>
       </c>
       <c r="C89">
-        <v>-0.3095837494577583</v>
+        <v>0.01010411665198099</v>
       </c>
       <c r="D89">
-        <v>0.2050638459868365</v>
+        <v>-0.2523768637623633</v>
       </c>
       <c r="E89">
-        <v>-0.02808802439051808</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.08887384616097546</v>
+      </c>
+      <c r="F89">
+        <v>0.005481747451536443</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.0693602053058157</v>
+        <v>0.1483120757303753</v>
       </c>
       <c r="C90">
-        <v>-0.2582574981759885</v>
+        <v>0.02799189535098868</v>
       </c>
       <c r="D90">
-        <v>0.1710786059510236</v>
+        <v>-0.2662270249183931</v>
       </c>
       <c r="E90">
-        <v>-0.02992350528858785</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.1092165586851038</v>
+      </c>
+      <c r="F90">
+        <v>0.009354560444988011</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.09528339166859937</v>
+        <v>0.1196765995402991</v>
       </c>
       <c r="C91">
-        <v>0.005505064985678113</v>
+        <v>0.01731645298546583</v>
       </c>
       <c r="D91">
-        <v>-0.02623038848625272</v>
+        <v>-0.01026669605123664</v>
       </c>
       <c r="E91">
-        <v>0.007588632662259543</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05773519714637792</v>
+      </c>
+      <c r="F91">
+        <v>-0.01101412745557083</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.08786410753612586</v>
+        <v>0.1484478801002267</v>
       </c>
       <c r="C92">
-        <v>-0.2708057779503592</v>
+        <v>0.02015262119582542</v>
       </c>
       <c r="D92">
-        <v>0.2014988187321517</v>
+        <v>-0.2921072100799676</v>
       </c>
       <c r="E92">
-        <v>-0.01453011235686584</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.1034407226278178</v>
+      </c>
+      <c r="F92">
+        <v>0.002146586252994331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.07539361713359739</v>
+        <v>0.1513783971432305</v>
       </c>
       <c r="C93">
-        <v>-0.2824271337971294</v>
+        <v>0.02407810636153001</v>
       </c>
       <c r="D93">
-        <v>0.1859138671740681</v>
+        <v>-0.2654063884702438</v>
       </c>
       <c r="E93">
-        <v>-0.02985896383989654</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.07601850652342283</v>
+      </c>
+      <c r="F93">
+        <v>0.00950516846742535</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1605553725190432</v>
+        <v>0.1317743241577886</v>
       </c>
       <c r="C94">
-        <v>0.01024889798280383</v>
+        <v>0.02384874303118845</v>
       </c>
       <c r="D94">
-        <v>-0.03833822622743063</v>
+        <v>0.04410272895403524</v>
       </c>
       <c r="E94">
-        <v>-0.06533278928167262</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06094442820328842</v>
+      </c>
+      <c r="F94">
+        <v>0.03298140296978929</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1280265326694258</v>
+        <v>0.1257254560014472</v>
       </c>
       <c r="C95">
-        <v>0.0190215118082701</v>
+        <v>0.004626903953738427</v>
       </c>
       <c r="D95">
-        <v>-0.04614808873534003</v>
+        <v>0.09299629774679458</v>
       </c>
       <c r="E95">
-        <v>-0.0449295698993186</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.04640817090653278</v>
+      </c>
+      <c r="F95">
+        <v>-0.01133361155338302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01558424195803585</v>
+        <v>0.1004178796138615</v>
       </c>
       <c r="C96">
-        <v>0.001085194488680662</v>
+        <v>-0.9885893562208609</v>
       </c>
       <c r="D96">
-        <v>-0.001929765845797618</v>
+        <v>-0.03688883421293614</v>
       </c>
       <c r="E96">
-        <v>-0.0004440075324187741</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.05818687876185569</v>
+      </c>
+      <c r="F96">
+        <v>0.04185570489592797</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1784932946427556</v>
+        <v>0.1898294675057885</v>
       </c>
       <c r="C97">
-        <v>-0.02970696528137419</v>
+        <v>-0.009339320717106366</v>
       </c>
       <c r="D97">
-        <v>-0.05414628018247575</v>
+        <v>-0.01635568087069083</v>
       </c>
       <c r="E97">
-        <v>-0.03642300660693529</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.009186511248492088</v>
+      </c>
+      <c r="F97">
+        <v>-0.09611920411348614</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2227901290395542</v>
+        <v>0.2058823783825511</v>
       </c>
       <c r="C98">
-        <v>-0.01605734169015832</v>
+        <v>0.007512994931854446</v>
       </c>
       <c r="D98">
-        <v>0.09163707337438197</v>
+        <v>0.00797171847067852</v>
       </c>
       <c r="E98">
-        <v>0.1169193515686009</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.09614393957064876</v>
+      </c>
+      <c r="F98">
+        <v>-0.09661566766377057</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04765138684727657</v>
+        <v>0.0556502086678084</v>
       </c>
       <c r="C99">
-        <v>-0.01697380693427596</v>
+        <v>-0.004306754764868682</v>
       </c>
       <c r="D99">
-        <v>-0.0137110743840385</v>
+        <v>0.0371602653685633</v>
       </c>
       <c r="E99">
-        <v>-0.04501303151544045</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.02434360211919977</v>
+      </c>
+      <c r="F99">
+        <v>-0.000249100662886508</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1296848003538608</v>
+        <v>0.1244406299361305</v>
       </c>
       <c r="C100">
-        <v>0.521205627118722</v>
+        <v>-0.05247278820966347</v>
       </c>
       <c r="D100">
-        <v>0.7581478713448827</v>
+        <v>0.3443043826482394</v>
       </c>
       <c r="E100">
-        <v>0.2374544445964127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>-0.8944898342749197</v>
+      </c>
+      <c r="F100">
+        <v>-0.08587619726394463</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0314205662003167</v>
+        <v>0.02688963411380267</v>
       </c>
       <c r="C101">
-        <v>0.008987282404266562</v>
+        <v>0.008344196721518211</v>
       </c>
       <c r="D101">
-        <v>0.002892902830529317</v>
+        <v>0.03119284618579728</v>
       </c>
       <c r="E101">
-        <v>-0.00888605413402385</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01071415589443088</v>
+      </c>
+      <c r="F101">
+        <v>-0.01364069259777544</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
